--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.40492633333333</v>
+        <v>54.650772</v>
       </c>
       <c r="H2">
-        <v>91.21477899999999</v>
+        <v>163.952316</v>
       </c>
       <c r="I2">
-        <v>0.1967210800742636</v>
+        <v>0.3089913429651142</v>
       </c>
       <c r="J2">
-        <v>0.1967210800742636</v>
+        <v>0.3089913429651142</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>205.0732113527568</v>
+        <v>344.6193520131119</v>
       </c>
       <c r="R2">
-        <v>1845.658902174811</v>
+        <v>3101.574168118008</v>
       </c>
       <c r="S2">
-        <v>0.002064141318873418</v>
+        <v>0.00419038767940246</v>
       </c>
       <c r="T2">
-        <v>0.002064141318873418</v>
+        <v>0.004190387679402458</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.40492633333333</v>
+        <v>54.650772</v>
       </c>
       <c r="H3">
-        <v>91.21477899999999</v>
+        <v>163.952316</v>
       </c>
       <c r="I3">
-        <v>0.1967210800742636</v>
+        <v>0.3089913429651142</v>
       </c>
       <c r="J3">
-        <v>0.1967210800742636</v>
+        <v>0.3089913429651142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>5549.862354844402</v>
+        <v>9975.497353975428</v>
       </c>
       <c r="R3">
-        <v>49948.76119359961</v>
+        <v>89779.47618577885</v>
       </c>
       <c r="S3">
-        <v>0.05586151465190122</v>
+        <v>0.1212967320721444</v>
       </c>
       <c r="T3">
-        <v>0.05586151465190122</v>
+        <v>0.1212967320721444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.40492633333333</v>
+        <v>54.650772</v>
       </c>
       <c r="H4">
-        <v>91.21477899999999</v>
+        <v>163.952316</v>
       </c>
       <c r="I4">
-        <v>0.1967210800742636</v>
+        <v>0.3089913429651142</v>
       </c>
       <c r="J4">
-        <v>0.1967210800742636</v>
+        <v>0.3089913429651142</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>7574.867907513643</v>
+        <v>6962.311227465396</v>
       </c>
       <c r="R4">
-        <v>68173.81116762279</v>
+        <v>62660.80104718856</v>
       </c>
       <c r="S4">
-        <v>0.07624398003897039</v>
+        <v>0.08465799444317444</v>
       </c>
       <c r="T4">
-        <v>0.07624398003897039</v>
+        <v>0.08465799444317443</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.40492633333333</v>
+        <v>54.650772</v>
       </c>
       <c r="H5">
-        <v>91.21477899999999</v>
+        <v>163.952316</v>
       </c>
       <c r="I5">
-        <v>0.1967210800742636</v>
+        <v>0.3089913429651142</v>
       </c>
       <c r="J5">
-        <v>0.1967210800742636</v>
+        <v>0.3089913429651142</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>530.8834324874884</v>
+        <v>1061.536668195696</v>
       </c>
       <c r="R5">
-        <v>4777.950892387396</v>
+        <v>9553.830013761264</v>
       </c>
       <c r="S5">
-        <v>0.005343547415453495</v>
+        <v>0.01290772021262444</v>
       </c>
       <c r="T5">
-        <v>0.005343547415453495</v>
+        <v>0.01290772021262443</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.40492633333333</v>
+        <v>54.650772</v>
       </c>
       <c r="H6">
-        <v>91.21477899999999</v>
+        <v>163.952316</v>
       </c>
       <c r="I6">
-        <v>0.1967210800742636</v>
+        <v>0.3089913429651142</v>
       </c>
       <c r="J6">
-        <v>0.1967210800742636</v>
+        <v>0.3089913429651142</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>5683.625909374974</v>
+        <v>7067.621279464681</v>
       </c>
       <c r="R6">
-        <v>51152.63318437476</v>
+        <v>63608.59151518212</v>
       </c>
       <c r="S6">
-        <v>0.05720789664906508</v>
+        <v>0.08593850855776847</v>
       </c>
       <c r="T6">
-        <v>0.05720789664906507</v>
+        <v>0.08593850855776844</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>283.774712</v>
       </c>
       <c r="I7">
-        <v>0.6120112163227749</v>
+        <v>0.534813606173264</v>
       </c>
       <c r="J7">
-        <v>0.6120112163227748</v>
+        <v>0.5348136061732639</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>637.9952035025342</v>
+        <v>596.4798775221174</v>
       </c>
       <c r="R7">
-        <v>5741.956831522808</v>
+        <v>5368.318897699057</v>
       </c>
       <c r="S7">
-        <v>0.006421668886470738</v>
+        <v>0.007252877457923691</v>
       </c>
       <c r="T7">
-        <v>0.006421668886470738</v>
+        <v>0.007252877457923688</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>283.774712</v>
       </c>
       <c r="I8">
-        <v>0.6120112163227749</v>
+        <v>0.534813606173264</v>
       </c>
       <c r="J8">
-        <v>0.6120112163227748</v>
+        <v>0.5348136061732639</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>17265.95852833906</v>
@@ -948,10 +948,10 @@
         <v>155393.6267550515</v>
       </c>
       <c r="S8">
-        <v>0.1737885615249591</v>
+        <v>0.2099448550047561</v>
       </c>
       <c r="T8">
-        <v>0.1737885615249591</v>
+        <v>0.2099448550047561</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>283.774712</v>
       </c>
       <c r="I9">
-        <v>0.6120112163227749</v>
+        <v>0.534813606173264</v>
       </c>
       <c r="J9">
-        <v>0.6120112163227748</v>
+        <v>0.5348136061732639</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>23565.87367155411</v>
+        <v>12050.62491113794</v>
       </c>
       <c r="R9">
-        <v>212092.863043987</v>
+        <v>108455.6242002415</v>
       </c>
       <c r="S9">
-        <v>0.2371996480668179</v>
+        <v>0.146529177371361</v>
       </c>
       <c r="T9">
-        <v>0.2371996480668179</v>
+        <v>0.146529177371361</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>283.774712</v>
       </c>
       <c r="I10">
-        <v>0.6120112163227749</v>
+        <v>0.534813606173264</v>
       </c>
       <c r="J10">
-        <v>0.6120112163227748</v>
+        <v>0.5348136061732639</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>1651.610570253188</v>
+        <v>1837.346794751428</v>
       </c>
       <c r="R10">
-        <v>14864.49513227869</v>
+        <v>16536.12115276285</v>
       </c>
       <c r="S10">
-        <v>0.01662410023356698</v>
+        <v>0.02234115793712899</v>
       </c>
       <c r="T10">
-        <v>0.01662410023356697</v>
+        <v>0.02234115793712898</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>283.774712</v>
       </c>
       <c r="I11">
-        <v>0.6120112163227749</v>
+        <v>0.534813606173264</v>
       </c>
       <c r="J11">
-        <v>0.6120112163227748</v>
+        <v>0.5348136061732639</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>17682.10506269627</v>
+        <v>12232.89943098554</v>
       </c>
       <c r="R11">
-        <v>159138.9455642664</v>
+        <v>110096.0948788699</v>
       </c>
       <c r="S11">
-        <v>0.1779772376109601</v>
+        <v>0.1487455384020942</v>
       </c>
       <c r="T11">
-        <v>0.17797723761096</v>
+        <v>0.1487455384020942</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.739929666666666</v>
+        <v>5.807188</v>
       </c>
       <c r="H12">
-        <v>23.219789</v>
+        <v>17.421564</v>
       </c>
       <c r="I12">
-        <v>0.05007765212232225</v>
+        <v>0.0328334029567029</v>
       </c>
       <c r="J12">
-        <v>0.05007765212232225</v>
+        <v>0.03283340295670289</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>52.20378484021121</v>
+        <v>36.619233221048</v>
       </c>
       <c r="R12">
-        <v>469.834063561901</v>
+        <v>329.573098989432</v>
       </c>
       <c r="S12">
-        <v>0.000525451318480117</v>
+        <v>0.0004452703622772943</v>
       </c>
       <c r="T12">
-        <v>0.0005254513184801171</v>
+        <v>0.0004452703622772942</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.739929666666666</v>
+        <v>5.807188</v>
       </c>
       <c r="H13">
-        <v>23.219789</v>
+        <v>17.421564</v>
       </c>
       <c r="I13">
-        <v>0.05007765212232225</v>
+        <v>0.0328334029567029</v>
       </c>
       <c r="J13">
-        <v>0.05007765212232225</v>
+        <v>0.03283340295670289</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>1412.782383198343</v>
+        <v>1059.995795265945</v>
       </c>
       <c r="R13">
-        <v>12715.04144878508</v>
+        <v>9539.962157393509</v>
       </c>
       <c r="S13">
-        <v>0.01422020200736938</v>
+        <v>0.01288898401890045</v>
       </c>
       <c r="T13">
-        <v>0.01422020200736939</v>
+        <v>0.01288898401890045</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.739929666666666</v>
+        <v>5.807188</v>
       </c>
       <c r="H14">
-        <v>23.219789</v>
+        <v>17.421564</v>
       </c>
       <c r="I14">
-        <v>0.05007765212232225</v>
+        <v>0.0328334029567029</v>
       </c>
       <c r="J14">
-        <v>0.05007765212232225</v>
+        <v>0.03283340295670289</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>1928.271234591692</v>
+        <v>739.8148046728841</v>
       </c>
       <c r="R14">
-        <v>17354.44111132522</v>
+        <v>6658.333242055956</v>
       </c>
       <c r="S14">
-        <v>0.01940879700015613</v>
+        <v>0.008995753791629318</v>
       </c>
       <c r="T14">
-        <v>0.01940879700015613</v>
+        <v>0.008995753791629316</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.739929666666666</v>
+        <v>5.807188</v>
       </c>
       <c r="H15">
-        <v>23.219789</v>
+        <v>17.421564</v>
       </c>
       <c r="I15">
-        <v>0.05007765212232225</v>
+        <v>0.0328334029567029</v>
       </c>
       <c r="J15">
-        <v>0.05007765212232225</v>
+        <v>0.03283340295670289</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>135.1425878689596</v>
+        <v>112.7988274549173</v>
       </c>
       <c r="R15">
-        <v>1216.283290820636</v>
+        <v>1015.189447094256</v>
       </c>
       <c r="S15">
-        <v>0.001360262501960625</v>
+        <v>0.001371573633508966</v>
       </c>
       <c r="T15">
-        <v>0.001360262501960625</v>
+        <v>0.001371573633508966</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.739929666666666</v>
+        <v>5.807188</v>
       </c>
       <c r="H16">
-        <v>23.219789</v>
+        <v>17.421564</v>
       </c>
       <c r="I16">
-        <v>0.05007765212232225</v>
+        <v>0.0328334029567029</v>
       </c>
       <c r="J16">
-        <v>0.05007765212232225</v>
+        <v>0.03283340295670289</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>1446.833460733595</v>
+        <v>751.0050449543868</v>
       </c>
       <c r="R16">
-        <v>13021.50114660235</v>
+        <v>6759.04540458948</v>
       </c>
       <c r="S16">
-        <v>0.014562939294356</v>
+        <v>0.009131821150386868</v>
       </c>
       <c r="T16">
-        <v>0.014562939294356</v>
+        <v>0.009131821150386864</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.74756533333333</v>
+        <v>15.46624066666667</v>
       </c>
       <c r="H17">
-        <v>50.242696</v>
+        <v>46.398722</v>
       </c>
       <c r="I17">
-        <v>0.1083574123768132</v>
+        <v>0.08744495821971184</v>
       </c>
       <c r="J17">
-        <v>0.1083574123768132</v>
+        <v>0.08744495821971182</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>112.9579123986071</v>
+        <v>97.52773184293733</v>
       </c>
       <c r="R17">
-        <v>1016.621211587464</v>
+        <v>877.749586586436</v>
       </c>
       <c r="S17">
-        <v>0.001136965148873476</v>
+        <v>0.001185885248542752</v>
       </c>
       <c r="T17">
-        <v>0.001136965148873476</v>
+        <v>0.001185885248542752</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.74756533333333</v>
+        <v>15.46624066666667</v>
       </c>
       <c r="H18">
-        <v>50.242696</v>
+        <v>46.398722</v>
       </c>
       <c r="I18">
-        <v>0.1083574123768132</v>
+        <v>0.08744495821971184</v>
       </c>
       <c r="J18">
-        <v>0.1083574123768132</v>
+        <v>0.08744495821971182</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>3056.961275280746</v>
+        <v>2823.078928258882</v>
       </c>
       <c r="R18">
-        <v>27512.65147752671</v>
+        <v>25407.71035432993</v>
       </c>
       <c r="S18">
-        <v>0.03076949952107014</v>
+        <v>0.03432713540273451</v>
       </c>
       <c r="T18">
-        <v>0.03076949952107015</v>
+        <v>0.03432713540273449</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.74756533333333</v>
+        <v>15.46624066666667</v>
       </c>
       <c r="H19">
-        <v>50.242696</v>
+        <v>46.398722</v>
       </c>
       <c r="I19">
-        <v>0.1083574123768132</v>
+        <v>0.08744495821971184</v>
       </c>
       <c r="J19">
-        <v>0.1083574123768132</v>
+        <v>0.08744495821971182</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>4172.369759481237</v>
+        <v>1970.343274203249</v>
       </c>
       <c r="R19">
-        <v>37551.32783533113</v>
+        <v>17733.08946782924</v>
       </c>
       <c r="S19">
-        <v>0.0419965180305711</v>
+        <v>0.02395832425597694</v>
       </c>
       <c r="T19">
-        <v>0.0419965180305711</v>
+        <v>0.02395832425597694</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.74756533333333</v>
+        <v>15.46624066666667</v>
       </c>
       <c r="H20">
-        <v>50.242696</v>
+        <v>46.398722</v>
       </c>
       <c r="I20">
-        <v>0.1083574123768132</v>
+        <v>0.08744495821971184</v>
       </c>
       <c r="J20">
-        <v>0.1083574123768132</v>
+        <v>0.08744495821971182</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>292.4198819788338</v>
+        <v>300.4162793309875</v>
       </c>
       <c r="R20">
-        <v>2631.778937809504</v>
+        <v>2703.746513978888</v>
       </c>
       <c r="S20">
-        <v>0.002943319397355725</v>
+        <v>0.003652901870561818</v>
       </c>
       <c r="T20">
-        <v>0.002943319397355725</v>
+        <v>0.003652901870561817</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.74756533333333</v>
+        <v>15.46624066666667</v>
       </c>
       <c r="H21">
-        <v>50.242696</v>
+        <v>46.398722</v>
       </c>
       <c r="I21">
-        <v>0.1083574123768132</v>
+        <v>0.08744495821971184</v>
       </c>
       <c r="J21">
-        <v>0.1083574123768132</v>
+        <v>0.08744495821971182</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>3130.640581198474</v>
+        <v>2000.146158027838</v>
       </c>
       <c r="R21">
-        <v>28175.76523078627</v>
+        <v>18001.31542225054</v>
       </c>
       <c r="S21">
-        <v>0.0315111102789428</v>
+        <v>0.02432071144189583</v>
       </c>
       <c r="T21">
-        <v>0.03151111027894279</v>
+        <v>0.02432071144189582</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.074565333333333</v>
+        <v>6.352523666666666</v>
       </c>
       <c r="H22">
-        <v>15.223696</v>
+        <v>19.057571</v>
       </c>
       <c r="I22">
-        <v>0.032832639103826</v>
+        <v>0.0359166896852071</v>
       </c>
       <c r="J22">
-        <v>0.03283263910382599</v>
+        <v>0.03591668968520709</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>34.22660517960711</v>
+        <v>40.05803595335533</v>
       </c>
       <c r="R22">
-        <v>308.039446616464</v>
+        <v>360.522323580198</v>
       </c>
       <c r="S22">
-        <v>0.0003445040407275227</v>
+        <v>0.0004870843710297915</v>
       </c>
       <c r="T22">
-        <v>0.0003445040407275227</v>
+        <v>0.0004870843710297914</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.074565333333333</v>
+        <v>6.352523666666666</v>
       </c>
       <c r="H23">
-        <v>15.223696</v>
+        <v>19.057571</v>
       </c>
       <c r="I23">
-        <v>0.032832639103826</v>
+        <v>0.0359166896852071</v>
       </c>
       <c r="J23">
-        <v>0.03283263910382599</v>
+        <v>0.03591668968520709</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>926.2689474037459</v>
+        <v>1159.536831938982</v>
       </c>
       <c r="R23">
-        <v>8336.420526633712</v>
+        <v>10435.83148745084</v>
       </c>
       <c r="S23">
-        <v>0.009323255797836116</v>
+        <v>0.01409934998132549</v>
       </c>
       <c r="T23">
-        <v>0.009323255797836116</v>
+        <v>0.01409934998132548</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.074565333333333</v>
+        <v>6.352523666666666</v>
       </c>
       <c r="H24">
-        <v>15.223696</v>
+        <v>19.057571</v>
       </c>
       <c r="I24">
-        <v>0.032832639103826</v>
+        <v>0.0359166896852071</v>
       </c>
       <c r="J24">
-        <v>0.03283263910382599</v>
+        <v>0.03591668968520709</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>1264.241250468236</v>
+        <v>809.2886015804677</v>
       </c>
       <c r="R24">
-        <v>11378.17125421413</v>
+        <v>7283.597414224209</v>
       </c>
       <c r="S24">
-        <v>0.01272507796070364</v>
+        <v>0.009840518140764797</v>
       </c>
       <c r="T24">
-        <v>0.01272507796070364</v>
+        <v>0.009840518140764795</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.074565333333333</v>
+        <v>6.352523666666666</v>
       </c>
       <c r="H25">
-        <v>15.223696</v>
+        <v>19.057571</v>
       </c>
       <c r="I25">
-        <v>0.032832639103826</v>
+        <v>0.0359166896852071</v>
       </c>
       <c r="J25">
-        <v>0.03283263910382599</v>
+        <v>0.03591668968520709</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>88.60415029483379</v>
+        <v>123.3914281713649</v>
       </c>
       <c r="R25">
-        <v>797.437352653504</v>
+        <v>1110.522853542284</v>
       </c>
       <c r="S25">
-        <v>0.0008918350985036066</v>
+        <v>0.001500374013626165</v>
       </c>
       <c r="T25">
-        <v>0.0008918350985036065</v>
+        <v>0.001500374013626165</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.074565333333333</v>
+        <v>6.352523666666666</v>
       </c>
       <c r="H26">
-        <v>15.223696</v>
+        <v>19.057571</v>
       </c>
       <c r="I26">
-        <v>0.032832639103826</v>
+        <v>0.0359166896852071</v>
       </c>
       <c r="J26">
-        <v>0.03283263910382599</v>
+        <v>0.03591668968520709</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>948.5940104294739</v>
+        <v>821.5296838777746</v>
       </c>
       <c r="R26">
-        <v>8537.346093865264</v>
+        <v>7393.767154899971</v>
       </c>
       <c r="S26">
-        <v>0.009547966206055112</v>
+        <v>0.009989363178460867</v>
       </c>
       <c r="T26">
-        <v>0.00954796620605511</v>
+        <v>0.009989363178460864</v>
       </c>
     </row>
   </sheetData>
